--- a/public/docs/Plantilla_recursos.xlsx
+++ b/public/docs/Plantilla_recursos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\citys\OneDrive\Escritorio\TFM\public\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CBC270-C9DD-445C-94C7-DB6B17F49748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C3C279-C2F9-4ADC-AECA-1980EAF04EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recursos" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Orden</t>
   </si>
@@ -43,13 +43,34 @@
   </si>
   <si>
     <t>Vocabulario</t>
+  </si>
+  <si>
+    <t>Familia</t>
+  </si>
+  <si>
+    <t>Palabra</t>
+  </si>
+  <si>
+    <t>Batido</t>
+  </si>
+  <si>
+    <t>Bebidas</t>
+  </si>
+  <si>
+    <t>Español</t>
+  </si>
+  <si>
+    <t>Shake</t>
+  </si>
+  <si>
+    <t>Inglés</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -69,12 +90,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -99,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -107,7 +122,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,19 +436,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.109375" customWidth="1"/>
-    <col min="2" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="4" width="44.44140625" customWidth="1"/>
-    <col min="5" max="1025" width="25.6640625" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="2" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="44.42578125" customWidth="1"/>
+    <col min="5" max="1025" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -448,12 +464,60 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
